--- a/src/test/resources/TestData/POData.xlsx
+++ b/src/test/resources/TestData/POData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="253">
   <si>
     <t xml:space="preserve">RQ Number</t>
   </si>
@@ -767,6 +767,21 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>100018</t>
+  </si>
+  <si>
+    <t>22396</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
@@ -2222,6 +2237,91 @@
     <row r="217">
       <c r="A217" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/POData.xlsx
+++ b/src/test/resources/TestData/POData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="257">
   <si>
     <t xml:space="preserve">RQ Number</t>
   </si>
@@ -782,6 +782,18 @@
   </si>
   <si>
     <t>22396</t>
+  </si>
+  <si>
+    <t>107194</t>
+  </si>
+  <si>
+    <t>107195</t>
+  </si>
+  <si>
+    <t>8216</t>
+  </si>
+  <si>
+    <t>100020</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1151,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
@@ -2322,6 +2334,21 @@
     <row r="234">
       <c r="A234" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2367,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -2488,6 +2515,11 @@
     <row r="30">
       <c r="A30" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
